--- a/Consumer/Warner Music Group.xlsx
+++ b/Consumer/Warner Music Group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7009403-C82E-2948-A664-2BF240F4166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F41F61-70E3-A64E-B187-115198D8E52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2391,11 +2391,9 @@
     <v>Powered by Refinitiv</v>
     <v>38.755000000000003</v>
     <v>21.57</v>
-    <v>1.0860000000000001</v>
-    <v>-0.37</v>
-    <v>-1.4111E-2</v>
-    <v>-0.05</v>
-    <v>-1.934E-3</v>
+    <v>1.135</v>
+    <v>-0.28999999999999998</v>
+    <v>-1.1009999999999999E-2</v>
     <v>USD</v>
     <v>Warner Music Group Corp. is a holding company that is primarily engaged in music entertainment. The Company’s segments include Recorded Music and Music Publishing. The Recorded Music segment consists of the discovery and development of recording artists and the related marketing, promotion, distribution, sale, and licensing of music created by such recording artists. In the United States, its Recorded Music business is conducted principally through its record labels, such as Atlantic Records and Warner Records. It also conducts its Recorded Music business through a collection of additional record labels, including Asylum, Big Beat, Canvasback, East West, Erato, Reprise, Sire, Warner Classics and Warner Music Nashville. The Music Publishing segment is focused on marketing, promoting, distributing, and licensing a particular recording of a musical composition. The operations of its Music Publishing business are conducted through Warner Chappell Music, its global music publishing company.</v>
     <v>6200</v>
@@ -2403,25 +2401,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway, NEW YORK, NY, 10019 US</v>
-    <v>26.27</v>
+    <v>26.25</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45057.845616260936</v>
+    <v>45100.783852499997</v>
     <v>0</v>
-    <v>25.61</v>
-    <v>13337017980</v>
+    <v>25.95</v>
+    <v>13441135725</v>
     <v>WARNER MUSIC GROUP CORP.</v>
     <v>WARNER MUSIC GROUP CORP.</v>
-    <v>26.04</v>
-    <v>32.1982</v>
-    <v>26.22</v>
-    <v>25.85</v>
-    <v>25.8</v>
-    <v>515938800</v>
+    <v>26.03</v>
+    <v>32.345599999999997</v>
+    <v>26.34</v>
+    <v>26.05</v>
+    <v>515974500</v>
     <v>WMG</v>
     <v>WARNER MUSIC GROUP CORP. (XNAS:WMG)</v>
-    <v>2242697</v>
-    <v>1842715</v>
+    <v>419762</v>
+    <v>1836138</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2453,8 +2450,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2475,7 +2470,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2492,7 +2486,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2503,16 +2497,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2578,19 +2569,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2635,9 +2620,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2645,9 +2627,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3009,10 +2988,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y128" sqref="Y128"/>
+      <selection pane="bottomRight" activeCell="W122" sqref="W122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4415,15 +4394,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>2.2532552762290927</v>
+        <v>2.2708457045108972</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>24.205114301270417</v>
+        <v>24.394075725952813</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>32.060139374999999</v>
+        <v>32.310422415865382</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10224,7 +10203,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.0860000000000001</v>
+        <v>1.135</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10379,7 +10358,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.7702300000000011E-2</v>
+        <v>8.981175000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10610,7 +10589,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>0.23129659027592547</v>
+        <v>0.22991685542195472</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10688,7 +10667,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>13337017980</v>
+        <v>13441135725</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10766,7 +10745,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.76870340972407458</v>
+        <v>0.77008314457804528</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10844,7 +10823,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>17350017980</v>
+        <v>17454135725</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11022,7 +11001,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.2820509664241528E-2</v>
+        <v>7.4533734694547243E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11156,7 +11135,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>12107700491.549107</v>
+        <v>11688931027.274284</v>
       </c>
       <c r="AC107" s="46" t="s">
         <v>148</v>
@@ -11187,7 +11166,7 @@
       </c>
       <c r="AB108" s="45">
         <f>AB107+AB106</f>
-        <v>12672575036.298244</v>
+        <v>12253805572.023422</v>
       </c>
       <c r="AC108" s="46" t="s">
         <v>144</v>
@@ -11197,7 +11176,7 @@
       </c>
       <c r="AE108" s="50">
         <f>AE105</f>
-        <v>7.2820509664241528E-2</v>
+        <v>7.4533734694547243E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11212,7 +11191,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>10543846302.364103</v>
+        <v>10174210185.652575</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11239,7 +11218,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>7114846302.3641033</v>
+        <v>6745210185.6525745</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11257,7 +11236,7 @@
       </c>
       <c r="Y115" s="54">
         <f>Y113/Y114</f>
-        <v>24.20819758332642</v>
+        <v>22.950514174998553</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11266,7 +11245,7 @@
       </c>
       <c r="Y116" s="55" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>25.85</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11275,7 +11254,7 @@
       </c>
       <c r="Y117" s="57">
         <f>Y115/Y116-1</f>
-        <v>-6.3512666022188857E-2</v>
+        <v>-0.11898218138201333</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
